--- a/TestData/LV_TS01_ValidateERPSection.xlsx
+++ b/TestData/LV_TS01_ValidateERPSection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F042F4-E19D-4CFC-B175-312D21F2498B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462CAC9A-3A77-4D40-ADF5-4AD85654935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>Debtor Advisors</t>
   </si>
   <si>
-    <t>Debt Capital Markets</t>
-  </si>
-  <si>
     <t>IG</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Debt Financing</t>
   </si>
 </sst>
 </file>
@@ -677,37 +677,37 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -727,12 +727,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -755,32 +755,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +793,7 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -910,13 +910,13 @@
         <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
         <v>51</v>
@@ -960,16 +960,16 @@
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
         <v>23</v>
@@ -978,7 +978,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -999,19 +999,19 @@
         <v>38</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" t="s">
-        <v>93</v>
-      </c>
       <c r="AE2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
@@ -1058,13 +1058,13 @@
         <v>55</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
         <v>23</v>
@@ -1073,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
@@ -1094,19 +1094,19 @@
         <v>38</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" t="s">
-        <v>93</v>
-      </c>
       <c r="AE3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
         <v>51</v>
@@ -1153,13 +1153,13 @@
         <v>58</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
         <v>23</v>
@@ -1168,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
@@ -1189,10 +1189,10 @@
         <v>38</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s">
         <v>7</v>
@@ -1229,10 +1229,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1246,19 +1246,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1363,16 +1363,16 @@
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
